--- a/data/MGRAST_MetaData_template_1.7.xlsx
+++ b/data/MGRAST_MetaData_template_1.7.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="826" activeTab="1"/>
+    <workbookView xWindow="1800" yWindow="3360" windowWidth="30840" windowHeight="16700" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="837">
   <si>
     <t>misc_param</t>
   </si>
@@ -2547,7 +2547,10 @@
     <t>MIGS/MIMS/MIMARKS extension for reporting of measurements and observations obtained from one or more of the environments where the sample was obtained. Use one of: air,  built environment, host-associated, human-associated, human-oral, human-gut, human-skin, human-vaginal, microbial mat|biofilm, miscellaneous, plant-associated, sediment, soil, wastewater|sludge, water</t>
   </si>
   <si>
-    <t>ENVO_version</t>
+    <t>envo_release</t>
+  </si>
+  <si>
+    <t>Release date of ENVO ontology used in this project.  From https://bioportal.bioontology.org/ontologies/ENVO.</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +2621,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2692,8 +2695,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2705,11 +2712,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2746,6 +2750,8 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2782,6 +2788,8 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6176,8 +6184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6241,22 +6249,22 @@
         <v>776</v>
       </c>
       <c r="T1" t="s">
+        <v>835</v>
+      </c>
+      <c r="U1" t="s">
         <v>793</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>794</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>0</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -6318,25 +6326,27 @@
         <v>777</v>
       </c>
       <c r="T2" t="s">
+        <v>836</v>
+      </c>
+      <c r="U2" t="s">
         <v>795</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>796</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:H2 I1 J1:O2 P2 P1 I2 Q1:X2 Z1:XFD2 Y2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD2">
       <formula1>""""""</formula1>
     </dataValidation>
   </dataValidations>
